--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J2">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095057</v>
+        <v>0.3961209999999999</v>
       </c>
       <c r="N2">
-        <v>0.285171</v>
+        <v>1.188363</v>
       </c>
       <c r="O2">
-        <v>0.1193350869954211</v>
+        <v>0.5646784620538419</v>
       </c>
       <c r="P2">
-        <v>0.1193350869954211</v>
+        <v>0.5646784620538419</v>
       </c>
       <c r="Q2">
-        <v>0.006428578167333333</v>
+        <v>0.001354865860333333</v>
       </c>
       <c r="R2">
-        <v>0.05785720350599999</v>
+        <v>0.012193792743</v>
       </c>
       <c r="S2">
-        <v>0.007852360422060891</v>
+        <v>0.002004412660279922</v>
       </c>
       <c r="T2">
-        <v>0.007852360422060891</v>
+        <v>0.002004412660279922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J3">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3961209999999999</v>
+        <v>0.3053773333333333</v>
       </c>
       <c r="N3">
-        <v>1.188363</v>
+        <v>0.9161319999999999</v>
       </c>
       <c r="O3">
-        <v>0.497292508660206</v>
+        <v>0.4353215379461581</v>
       </c>
       <c r="P3">
-        <v>0.497292508660206</v>
+        <v>0.4353215379461581</v>
       </c>
       <c r="Q3">
-        <v>0.02678913506866666</v>
+        <v>0.001044492272444444</v>
       </c>
       <c r="R3">
-        <v>0.2411022156179999</v>
+        <v>0.009400430451999999</v>
       </c>
       <c r="S3">
-        <v>0.03272231253613286</v>
+        <v>0.001545240452023132</v>
       </c>
       <c r="T3">
-        <v>0.03272231253613286</v>
+        <v>0.001545240452023132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06762866666666666</v>
+        <v>0.3764723333333334</v>
       </c>
       <c r="H4">
-        <v>0.202886</v>
+        <v>1.129417</v>
       </c>
       <c r="I4">
-        <v>0.06580093600101188</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J4">
-        <v>0.06580093600101189</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3053773333333333</v>
+        <v>0.3961209999999999</v>
       </c>
       <c r="N4">
-        <v>0.9161320000000001</v>
+        <v>1.188363</v>
       </c>
       <c r="O4">
-        <v>0.3833724043443729</v>
+        <v>0.5646784620538419</v>
       </c>
       <c r="P4">
-        <v>0.3833724043443728</v>
+        <v>0.5646784620538419</v>
       </c>
       <c r="Q4">
-        <v>0.02065226188355555</v>
+        <v>0.1491285971523333</v>
       </c>
       <c r="R4">
-        <v>0.185870356952</v>
+        <v>1.342157374371</v>
       </c>
       <c r="S4">
-        <v>0.02522626304281813</v>
+        <v>0.2206235000034469</v>
       </c>
       <c r="T4">
-        <v>0.02522626304281813</v>
+        <v>0.2206235000034469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>1.129417</v>
       </c>
       <c r="I5">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J5">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.095057</v>
+        <v>0.3053773333333333</v>
       </c>
       <c r="N5">
-        <v>0.285171</v>
+        <v>0.9161319999999999</v>
       </c>
       <c r="O5">
-        <v>0.1193350869954211</v>
+        <v>0.4353215379461581</v>
       </c>
       <c r="P5">
-        <v>0.1193350869954211</v>
+        <v>0.4353215379461581</v>
       </c>
       <c r="Q5">
-        <v>0.03578633058966667</v>
+        <v>0.1149661172271111</v>
       </c>
       <c r="R5">
-        <v>0.322076975307</v>
+        <v>1.034695055044</v>
       </c>
       <c r="S5">
-        <v>0.0437121799966619</v>
+        <v>0.1700829193648387</v>
       </c>
       <c r="T5">
-        <v>0.0437121799966619</v>
+        <v>0.1700829193648387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3764723333333334</v>
+        <v>0.5836756666666667</v>
       </c>
       <c r="H6">
-        <v>1.129417</v>
+        <v>1.751027</v>
       </c>
       <c r="I6">
-        <v>0.3662978014030285</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J6">
-        <v>0.3662978014030286</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>1.188363</v>
       </c>
       <c r="O6">
-        <v>0.497292508660206</v>
+        <v>0.5646784620538419</v>
       </c>
       <c r="P6">
-        <v>0.497292508660206</v>
+        <v>0.5646784620538419</v>
       </c>
       <c r="Q6">
-        <v>0.1491285971523333</v>
+        <v>0.2312061887556666</v>
       </c>
       <c r="R6">
-        <v>1.342157374371</v>
+        <v>2.080855698801</v>
       </c>
       <c r="S6">
-        <v>0.18215715257643</v>
+        <v>0.3420505493901151</v>
       </c>
       <c r="T6">
-        <v>0.18215715257643</v>
+        <v>0.342050549390115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3764723333333334</v>
+        <v>0.5836756666666667</v>
       </c>
       <c r="H7">
-        <v>1.129417</v>
+        <v>1.751027</v>
       </c>
       <c r="I7">
-        <v>0.3662978014030285</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J7">
-        <v>0.3662978014030286</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,211 +865,25 @@
         <v>0.3053773333333333</v>
       </c>
       <c r="N7">
-        <v>0.9161320000000001</v>
+        <v>0.9161319999999999</v>
       </c>
       <c r="O7">
-        <v>0.3833724043443729</v>
+        <v>0.4353215379461581</v>
       </c>
       <c r="P7">
-        <v>0.3833724043443728</v>
+        <v>0.4353215379461581</v>
       </c>
       <c r="Q7">
-        <v>0.1149661172271111</v>
+        <v>0.1782413186182222</v>
       </c>
       <c r="R7">
-        <v>1.034695055044</v>
+        <v>1.604171867564</v>
       </c>
       <c r="S7">
-        <v>0.1404284688299366</v>
+        <v>0.2636933781292963</v>
       </c>
       <c r="T7">
-        <v>0.1404284688299366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5836756666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.751027</v>
-      </c>
-      <c r="I8">
-        <v>0.5679012625959595</v>
-      </c>
-      <c r="J8">
-        <v>0.5679012625959595</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.095057</v>
-      </c>
-      <c r="N8">
-        <v>0.285171</v>
-      </c>
-      <c r="O8">
-        <v>0.1193350869954211</v>
-      </c>
-      <c r="P8">
-        <v>0.1193350869954211</v>
-      </c>
-      <c r="Q8">
-        <v>0.05548245784633334</v>
-      </c>
-      <c r="R8">
-        <v>0.4993421206170001</v>
-      </c>
-      <c r="S8">
-        <v>0.06777054657669833</v>
-      </c>
-      <c r="T8">
-        <v>0.06777054657669832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5836756666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.751027</v>
-      </c>
-      <c r="I9">
-        <v>0.5679012625959595</v>
-      </c>
-      <c r="J9">
-        <v>0.5679012625959595</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.3961209999999999</v>
-      </c>
-      <c r="N9">
-        <v>1.188363</v>
-      </c>
-      <c r="O9">
-        <v>0.497292508660206</v>
-      </c>
-      <c r="P9">
-        <v>0.497292508660206</v>
-      </c>
-      <c r="Q9">
-        <v>0.2312061887556666</v>
-      </c>
-      <c r="R9">
-        <v>2.080855698801</v>
-      </c>
-      <c r="S9">
-        <v>0.2824130435476431</v>
-      </c>
-      <c r="T9">
-        <v>0.2824130435476431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5836756666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.751027</v>
-      </c>
-      <c r="I10">
-        <v>0.5679012625959595</v>
-      </c>
-      <c r="J10">
-        <v>0.5679012625959595</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3053773333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.9161320000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.3833724043443729</v>
-      </c>
-      <c r="P10">
-        <v>0.3833724043443728</v>
-      </c>
-      <c r="Q10">
-        <v>0.1782413186182222</v>
-      </c>
-      <c r="R10">
-        <v>1.604171867564</v>
-      </c>
-      <c r="S10">
-        <v>0.2177176724716181</v>
-      </c>
-      <c r="T10">
-        <v>0.217717672471618</v>
+        <v>0.2636933781292962</v>
       </c>
     </row>
   </sheetData>
